--- a/レビュー指摘.xlsx
+++ b/レビュー指摘.xlsx
@@ -3,16 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DF1E86-D179-4AFB-A51E-48B35F15B44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6C835-A6F9-46C0-B86F-268CDA43AD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レビュー指摘一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="サンプル" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">レビュー指摘一覧!$A$4:$J$24</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">レビュー指摘一覧!$1:$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">サンプル!$A$3:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">レビュー指摘一覧!$A$3:$K$23</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">サンプル!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">レビュー指摘一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,43 +35,10 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{CD848268-CCA7-42F9-9657-722D4DF64966}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>タイトルが青い列はレビュアーが記載、
-タイトルが黄色い列はレビューイが記載する。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分類</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -106,23 +76,12 @@
     <t>完了</t>
   </si>
   <si>
-    <t>ドキュメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外部設計書</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
     </rPh>
     <rPh sb="2" eb="5">
       <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○○画面</t>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -190,6 +149,37 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>分類1</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類2</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類3</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○○画面</t>
+  </si>
+  <si>
+    <t>項番3.1</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +189,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,14 +223,6 @@
     <font>
       <sz val="11"/>
       <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -476,7 +458,447 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="m/d"/>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Yu Gothic UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -527,12 +949,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -542,15 +967,9 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -878,6 +1297,42 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -891,26 +1346,229 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1390649</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A36B9C4-45C1-FAB7-9E3A-60FE2EADEA99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514849" y="1381125"/>
+          <a:ext cx="3286126" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -16775"/>
+            <a:gd name="adj2" fmla="val -133553"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトルが青い列はレビュアーが記載、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトルが黄色い列はレビューイが記載する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A341291-2A95-48FB-A128-2868DB1B5E42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733424" y="1638299"/>
+          <a:ext cx="3286126" cy="1457326"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40253"/>
+            <a:gd name="adj2" fmla="val -121696"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>使用する際に適切な項目に修正する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>例）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　案件、ドキュメント、項番・行数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ドキュメント、シート、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>項番・行数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ファイル、クラス、メソッド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A4:J27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A4:J27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No." dataDxfId="1">
-      <calculatedColumnFormula>ROW()-4</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A3:K26" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A3:K26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No." dataDxfId="3">
+      <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ドキュメント" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="分類" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="指摘内容" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="起票日" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="起票者" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="対応内容" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="対応日" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="対応者" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ステータス" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="分類1" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{5D30C054-E23C-48DC-8D0B-7B749754822B}" name="分類2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="分類3" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="指摘内容" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="起票日" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="起票者" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="対応内容" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="対応日" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="対応者" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ステータス" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{851BBC5E-7D68-41D7-B0D8-F0C2538A96AB}" name="テーブル13" displayName="テーブル13" ref="A3:K26" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A3:K26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{C1410615-42E8-49DB-9120-06DA85957F00}" name="No." dataDxfId="0">
+      <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4810008B-16B3-4906-A506-73CC47030643}" name="分類1" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{50254E3D-C6FB-4189-92A6-FF283C35BA9B}" name="分類2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{F7B8B0ED-CB22-401E-8619-C72AF15E7084}" name="分類3" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B6C61AF3-564C-4EE1-81C1-F8E2770E88D0}" name="指摘内容" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{FAC9575B-1F7F-4710-9DCE-C46F9EF244E4}" name="起票日" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{11150A86-C59E-4E0D-B4E0-90F3EF0A7C9E}" name="起票者" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{F58B4C23-FED1-4106-B7AF-97837CC78958}" name="対応内容" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{473D76B8-3366-47CE-85B7-BEB986C9E1B6}" name="対応日" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{15BD904E-3EC0-4020-A530-B4FF49227633}" name="対応者" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{1830948D-811D-43AC-A1D6-07A359C476EA}" name="ステータス" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1212,437 +1870,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.59765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.59765625" style="2"/>
+    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="F3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="25" t="s">
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="24" t="s">
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A26" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1">
-      <c r="A5" s="5">
-        <f t="shared" ref="A5:A27" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="16">
-        <v>45108</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="16">
-        <v>45109</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="8" customFormat="1">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" s="8" customFormat="1">
+      <c r="H6" s="4"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" s="8" customFormat="1">
+      <c r="H7" s="4"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" s="8" customFormat="1">
+      <c r="H8" s="4"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" s="8" customFormat="1">
+      <c r="H9" s="4"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" s="8" customFormat="1">
+      <c r="H10" s="4"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" s="8" customFormat="1">
+      <c r="H11" s="4"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" s="8" customFormat="1">
+      <c r="H12" s="4"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" s="8" customFormat="1">
+      <c r="H13" s="4"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" s="8" customFormat="1">
+      <c r="H14" s="4"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1">
+      <c r="H15" s="4"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" s="8" customFormat="1">
+      <c r="H16" s="4"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1">
+      <c r="H17" s="4"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" s="8" customFormat="1">
+      <c r="H18" s="4"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" s="8" customFormat="1">
+      <c r="H19" s="4"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1">
+      <c r="H20" s="4"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" s="8" customFormat="1">
+      <c r="H21" s="4"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" s="8" customFormat="1">
+      <c r="H22" s="4"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" s="8" customFormat="1">
+      <c r="H23" s="4"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" s="8" customFormat="1">
+      <c r="H24" s="4"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" s="8" customFormat="1">
-      <c r="A26" s="5">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="H25" s="4"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" s="8" customFormat="1">
-      <c r="A27" s="10">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A5:J27">
+  <conditionalFormatting sqref="A4:K26">
     <cfRule type="expression" dxfId="2" priority="66" stopIfTrue="1">
-      <formula>$J5="完了"</formula>
+      <formula>$K4="完了"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J27" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"完了"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1652,7 +2317,481 @@
     <oddHeader>&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3059D48-55F7-4EF2-A130-98DA0D45397B}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A26" si="0">ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="16">
+        <v>45108</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="16">
+        <v>45109</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="10">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A4:K26">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$K4="完了"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K26" xr:uid="{EAA3E881-A90E-4243-AC7B-2CC450B14759}">
+      <formula1>"完了"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
